--- a/Documentation/Reports/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Reports/TimeReport_AspenBoler.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267A7927-42D2-4A2E-896C-0E69C040F073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6BAF9B-0BB1-4039-9728-D72B1BB151C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Name:</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Sat down with group after class to define project and talked through all of Design Draft points (Deliverables, Requirements, Division of work, ect.)</t>
   </si>
   <si>
-    <t>Check-in 1: Met with Tyler, discussed our design draft, and asked questions regarding design plan and material buying</t>
-  </si>
-  <si>
     <t xml:space="preserve">Check-in 2: Met with group &amp; Tyler, reviewed out submitted design draft, discussed adding more hardware specification, and discussed with  group members to start buying materials and begin research </t>
   </si>
   <si>
@@ -105,6 +102,12 @@
   </si>
   <si>
     <t>Created repository, added members, created Project page, and created reports directory</t>
+  </si>
+  <si>
+    <t>Check-in 1: Met with group &amp; Tyler, discussed our design draft, and asked questions regarding design plan and material buying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check-in 3: Met with group &amp; Tyler, discussed things to prepare for alpha build completion and resources to buy </t>
   </si>
 </sst>
 </file>
@@ -670,7 +673,7 @@
   <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,7 +698,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>0.45902777777777781</v>
+        <v>0.48125000000000007</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -822,7 +825,7 @@
         <v>2.2222222222222254E-2</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -843,7 +846,7 @@
         <v>3.8888888888888917E-2</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -864,7 +867,7 @@
         <v>1.1111111111111072E-2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -885,7 +888,7 @@
         <v>2.1527777777777812E-2</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -910,15 +913,25 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="7">
+        <v>45950</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.64722222222222225</v>
+      </c>
       <c r="E13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="13"/>
+        <v>2.2222222222222254E-2</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>

--- a/Documentation/Reports/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Reports/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6BAF9B-0BB1-4039-9728-D72B1BB151C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0203A8E2-1D2B-40C1-852D-9EB0CC0FF561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Name:</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t xml:space="preserve">Check-in 3: Met with group &amp; Tyler, discussed things to prepare for alpha build completion and resources to buy </t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Began researching ESP32-Wroom and how to develop code; Found IDF with example/interfaces and made into submodule;</t>
   </si>
 </sst>
 </file>
@@ -672,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,7 +704,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>0.48125000000000007</v>
+        <v>2.4305555555555636E-2</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -934,15 +940,23 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="7">
+        <v>45954</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.45694444444444443</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="13"/>
+        <v>-0.45694444444444443</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>

--- a/Documentation/Reports/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Reports/TimeReport_AspenBoler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0203A8E2-1D2B-40C1-852D-9EB0CC0FF561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD08986B-FB33-41C8-9AB7-17CDA3F5F053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
+    <workbookView xWindow="0" yWindow="1524" windowWidth="17280" windowHeight="9528" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Name:</t>
   </si>
@@ -113,7 +113,10 @@
     <t>Research</t>
   </si>
   <si>
-    <t>Began researching ESP32-Wroom and how to develop code; Found IDF with example/interfaces and made into submodule;</t>
+    <t>Began researching ESP32-Wroom and how to develop code; Found IDF with example/interfaces and made into submodule; Used submodule to configure ESP_IDF on Vscode and examine example projects</t>
+  </si>
+  <si>
+    <t>Design Draft/Plans</t>
   </si>
 </sst>
 </file>
@@ -299,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -333,6 +336,9 @@
     </xf>
     <xf numFmtId="46" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -678,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,7 +740,7 @@
         <v>45933</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C4" s="9">
         <v>0.47013888888888888</v>
@@ -949,7 +955,7 @@
       <c r="C14" s="9">
         <v>0.45694444444444443</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="10">
         <f t="shared" si="0"/>
         <v>-0.45694444444444443</v>

--- a/Documentation/Reports/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Reports/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD08986B-FB33-41C8-9AB7-17CDA3F5F053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61EC5B8-15A6-4CE9-989D-91A3443B8074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1524" windowWidth="17280" windowHeight="9528" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -123,6 +123,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -302,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -338,7 +341,10 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -684,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,7 +716,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>2.4305555555555636E-2</v>
+        <v>0.59583333333333344</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -955,10 +961,12 @@
       <c r="C14" s="9">
         <v>0.45694444444444443</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="17">
+        <v>0.57152777777777775</v>
+      </c>
       <c r="E14" s="10">
         <f t="shared" si="0"/>
-        <v>-0.45694444444444443</v>
+        <v>0.11458333333333331</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>25</v>
@@ -967,8 +975,8 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -978,8 +986,8 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -989,8 +997,8 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1000,8 +1008,8 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1011,8 +1019,8 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1022,8 +1030,8 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1033,8 +1041,8 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1044,8 +1052,8 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1055,8 +1063,8 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1066,8 +1074,8 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1077,8 +1085,8 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1088,8 +1096,8 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1099,8 +1107,8 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1110,8 +1118,8 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1121,8 +1129,8 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1132,8 +1140,8 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1143,8 +1151,8 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1154,8 +1162,8 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1165,8 +1173,8 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1176,8 +1184,8 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1187,8 +1195,8 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1198,8 +1206,8 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1209,8 +1217,8 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1220,8 +1228,8 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1231,8 +1239,8 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1242,8 +1250,8 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1253,8 +1261,8 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1264,8 +1272,8 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1275,8 +1283,8 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1286,8 +1294,8 @@
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1297,8 +1305,8 @@
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1308,8 +1316,8 @@
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
       <c r="E46" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1319,8 +1327,8 @@
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
       <c r="E47" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1330,8 +1338,8 @@
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
       <c r="E48" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1341,8 +1349,8 @@
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
       <c r="E49" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1352,8 +1360,8 @@
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
       <c r="E50" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1363,8 +1371,8 @@
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
       <c r="E51" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1374,8 +1382,8 @@
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
       <c r="E52" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1385,8 +1393,8 @@
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
       <c r="E53" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1396,8 +1404,8 @@
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
       <c r="E54" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1407,8 +1415,8 @@
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
       <c r="E55" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1418,8 +1426,8 @@
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
       <c r="E56" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1429,8 +1437,8 @@
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1440,8 +1448,8 @@
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
       <c r="E58" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1451,8 +1459,8 @@
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
       <c r="E59" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1462,8 +1470,8 @@
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
       <c r="E60" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1473,8 +1481,8 @@
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
       <c r="E61" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1484,8 +1492,8 @@
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
       <c r="E62" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1495,8 +1503,8 @@
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
       <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
       <c r="E63" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1506,8 +1514,8 @@
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
       <c r="E64" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1517,8 +1525,8 @@
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
       <c r="E65" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1528,8 +1536,8 @@
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
       <c r="E66" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1539,8 +1547,8 @@
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
       <c r="E67" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1550,8 +1558,8 @@
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
       <c r="E68" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1561,8 +1569,8 @@
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
       <c r="E69" s="10">
         <f t="shared" ref="E69:E132" si="1">D69-C69</f>
         <v>0</v>
@@ -1572,8 +1580,8 @@
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
       <c r="E70" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1583,8 +1591,8 @@
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
       <c r="E71" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1594,8 +1602,8 @@
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
       <c r="E72" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1605,8 +1613,8 @@
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
       <c r="E73" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1616,8 +1624,8 @@
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
       <c r="E74" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1627,8 +1635,8 @@
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
       <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
       <c r="E75" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1638,8 +1646,8 @@
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
       <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
       <c r="E76" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1649,8 +1657,8 @@
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
       <c r="E77" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1660,8 +1668,8 @@
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
       <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
       <c r="E78" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1671,8 +1679,8 @@
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
       <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
       <c r="E79" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1682,8 +1690,8 @@
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
       <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
       <c r="E80" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1693,8 +1701,8 @@
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
       <c r="E81" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1704,8 +1712,8 @@
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
       <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
       <c r="E82" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1715,8 +1723,8 @@
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
       <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
       <c r="E83" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1726,8 +1734,8 @@
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
       <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
       <c r="E84" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1737,8 +1745,8 @@
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
       <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
       <c r="E85" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1748,8 +1756,8 @@
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
       <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
       <c r="E86" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1759,8 +1767,8 @@
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
       <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
       <c r="E87" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1770,8 +1778,8 @@
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
       <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
       <c r="E88" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1781,8 +1789,8 @@
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
       <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
       <c r="E89" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1792,8 +1800,8 @@
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
       <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
       <c r="E90" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1803,8 +1811,8 @@
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
       <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
       <c r="E91" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1814,8 +1822,8 @@
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
       <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
       <c r="E92" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1825,8 +1833,8 @@
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
       <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
       <c r="E93" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1836,8 +1844,8 @@
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
       <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
       <c r="E94" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1847,8 +1855,8 @@
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
       <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
       <c r="E95" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1858,8 +1866,8 @@
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
       <c r="E96" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1869,8 +1877,8 @@
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
       <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
       <c r="E97" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1880,8 +1888,8 @@
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
       <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
       <c r="E98" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1891,8 +1899,8 @@
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
       <c r="E99" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1902,8 +1910,8 @@
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
       <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
       <c r="E100" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1913,8 +1921,8 @@
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
       <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
       <c r="E101" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1924,8 +1932,8 @@
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
       <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
       <c r="E102" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1935,8 +1943,8 @@
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
       <c r="E103" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1946,8 +1954,8 @@
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="7"/>
       <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
       <c r="E104" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1957,8 +1965,8 @@
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
       <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
       <c r="E105" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1968,8 +1976,8 @@
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
       <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
       <c r="E106" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1979,8 +1987,8 @@
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="7"/>
       <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
       <c r="E107" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1990,8 +1998,8 @@
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
       <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
       <c r="E108" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2001,8 +2009,8 @@
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="7"/>
       <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
       <c r="E109" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2012,8 +2020,8 @@
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
       <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
       <c r="E110" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2023,8 +2031,8 @@
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="7"/>
       <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
       <c r="E111" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2034,8 +2042,8 @@
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="7"/>
       <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
       <c r="E112" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2045,8 +2053,8 @@
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="7"/>
       <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
       <c r="E113" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2056,8 +2064,8 @@
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
       <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
       <c r="E114" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2067,8 +2075,8 @@
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="7"/>
       <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
       <c r="E115" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2078,8 +2086,8 @@
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
       <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
       <c r="E116" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2089,8 +2097,8 @@
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
       <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
       <c r="E117" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2100,8 +2108,8 @@
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
       <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
       <c r="E118" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2111,8 +2119,8 @@
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
       <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
       <c r="E119" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2122,8 +2130,8 @@
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
       <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
       <c r="E120" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2133,8 +2141,8 @@
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="7"/>
       <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
       <c r="E121" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2144,8 +2152,8 @@
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
       <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
       <c r="E122" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2155,8 +2163,8 @@
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="7"/>
       <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
       <c r="E123" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2166,8 +2174,8 @@
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
       <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
       <c r="E124" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2177,8 +2185,8 @@
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="7"/>
       <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
       <c r="E125" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2188,8 +2196,8 @@
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="7"/>
       <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
       <c r="E126" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2199,8 +2207,8 @@
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="7"/>
       <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
       <c r="E127" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2210,8 +2218,8 @@
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="7"/>
       <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
       <c r="E128" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2221,8 +2229,8 @@
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="7"/>
       <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
       <c r="E129" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2232,8 +2240,8 @@
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="7"/>
       <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
       <c r="E130" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2243,8 +2251,8 @@
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="7"/>
       <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
       <c r="E131" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2254,8 +2262,8 @@
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
       <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
       <c r="E132" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2265,8 +2273,8 @@
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="7"/>
       <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
       <c r="E133" s="10">
         <f t="shared" ref="E133:E196" si="2">D133-C133</f>
         <v>0</v>
@@ -2276,8 +2284,8 @@
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="7"/>
       <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
       <c r="E134" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2287,8 +2295,8 @@
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="7"/>
       <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="17"/>
       <c r="E135" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2298,8 +2306,8 @@
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="7"/>
       <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="17"/>
       <c r="E136" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2309,8 +2317,8 @@
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="7"/>
       <c r="B137" s="8"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
+      <c r="C137" s="17"/>
+      <c r="D137" s="17"/>
       <c r="E137" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2320,8 +2328,8 @@
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="7"/>
       <c r="B138" s="8"/>
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
       <c r="E138" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2331,8 +2339,8 @@
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="7"/>
       <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
+      <c r="C139" s="17"/>
+      <c r="D139" s="17"/>
       <c r="E139" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2342,8 +2350,8 @@
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="7"/>
       <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="17"/>
       <c r="E140" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2353,8 +2361,8 @@
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="7"/>
       <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
       <c r="E141" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2364,8 +2372,8 @@
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="7"/>
       <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
       <c r="E142" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2375,8 +2383,8 @@
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="7"/>
       <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
       <c r="E143" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2386,8 +2394,8 @@
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="7"/>
       <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
       <c r="E144" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2397,8 +2405,8 @@
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="7"/>
       <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
       <c r="E145" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2408,8 +2416,8 @@
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="7"/>
       <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
       <c r="E146" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2419,8 +2427,8 @@
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="7"/>
       <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
       <c r="E147" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2430,8 +2438,8 @@
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="7"/>
       <c r="B148" s="8"/>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="17"/>
       <c r="E148" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2441,8 +2449,8 @@
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="7"/>
       <c r="B149" s="8"/>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
       <c r="E149" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2452,8 +2460,8 @@
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="7"/>
       <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
+      <c r="C150" s="17"/>
+      <c r="D150" s="17"/>
       <c r="E150" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2463,8 +2471,8 @@
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="7"/>
       <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="17"/>
       <c r="E151" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2474,8 +2482,8 @@
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="7"/>
       <c r="B152" s="8"/>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="17"/>
       <c r="E152" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2485,8 +2493,8 @@
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="7"/>
       <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
       <c r="E153" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2496,8 +2504,8 @@
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="7"/>
       <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="17"/>
       <c r="E154" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2507,8 +2515,8 @@
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="7"/>
       <c r="B155" s="8"/>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="17"/>
       <c r="E155" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2518,8 +2526,8 @@
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="7"/>
       <c r="B156" s="8"/>
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
+      <c r="C156" s="17"/>
+      <c r="D156" s="17"/>
       <c r="E156" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2529,8 +2537,8 @@
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="7"/>
       <c r="B157" s="8"/>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
+      <c r="C157" s="17"/>
+      <c r="D157" s="17"/>
       <c r="E157" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2540,8 +2548,8 @@
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="7"/>
       <c r="B158" s="8"/>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="17"/>
       <c r="E158" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2551,8 +2559,8 @@
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="7"/>
       <c r="B159" s="8"/>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
       <c r="E159" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2562,8 +2570,8 @@
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="7"/>
       <c r="B160" s="8"/>
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="17"/>
       <c r="E160" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2573,8 +2581,8 @@
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="7"/>
       <c r="B161" s="8"/>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
       <c r="E161" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2584,8 +2592,8 @@
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="7"/>
       <c r="B162" s="8"/>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="17"/>
       <c r="E162" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2595,8 +2603,8 @@
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="7"/>
       <c r="B163" s="8"/>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
+      <c r="C163" s="17"/>
+      <c r="D163" s="17"/>
       <c r="E163" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2606,8 +2614,8 @@
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="7"/>
       <c r="B164" s="8"/>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
       <c r="E164" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2617,8 +2625,8 @@
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="7"/>
       <c r="B165" s="8"/>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
       <c r="E165" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2628,8 +2636,8 @@
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="7"/>
       <c r="B166" s="8"/>
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
+      <c r="C166" s="17"/>
+      <c r="D166" s="17"/>
       <c r="E166" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2639,8 +2647,8 @@
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="7"/>
       <c r="B167" s="8"/>
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
+      <c r="C167" s="17"/>
+      <c r="D167" s="17"/>
       <c r="E167" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2650,8 +2658,8 @@
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="7"/>
       <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
+      <c r="C168" s="17"/>
+      <c r="D168" s="17"/>
       <c r="E168" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2661,8 +2669,8 @@
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="7"/>
       <c r="B169" s="8"/>
-      <c r="C169" s="8"/>
-      <c r="D169" s="8"/>
+      <c r="C169" s="17"/>
+      <c r="D169" s="17"/>
       <c r="E169" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2672,8 +2680,8 @@
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="7"/>
       <c r="B170" s="8"/>
-      <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="17"/>
       <c r="E170" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2683,8 +2691,8 @@
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="7"/>
       <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
+      <c r="C171" s="17"/>
+      <c r="D171" s="17"/>
       <c r="E171" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2694,8 +2702,8 @@
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="7"/>
       <c r="B172" s="8"/>
-      <c r="C172" s="8"/>
-      <c r="D172" s="8"/>
+      <c r="C172" s="17"/>
+      <c r="D172" s="17"/>
       <c r="E172" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2705,8 +2713,8 @@
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="7"/>
       <c r="B173" s="8"/>
-      <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
+      <c r="C173" s="17"/>
+      <c r="D173" s="17"/>
       <c r="E173" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2716,8 +2724,8 @@
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="7"/>
       <c r="B174" s="8"/>
-      <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
+      <c r="C174" s="17"/>
+      <c r="D174" s="17"/>
       <c r="E174" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2727,8 +2735,8 @@
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="7"/>
       <c r="B175" s="8"/>
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
+      <c r="C175" s="17"/>
+      <c r="D175" s="17"/>
       <c r="E175" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2738,8 +2746,8 @@
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="7"/>
       <c r="B176" s="8"/>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
+      <c r="C176" s="17"/>
+      <c r="D176" s="17"/>
       <c r="E176" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2749,8 +2757,8 @@
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="7"/>
       <c r="B177" s="8"/>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
+      <c r="C177" s="17"/>
+      <c r="D177" s="17"/>
       <c r="E177" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2760,8 +2768,8 @@
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="7"/>
       <c r="B178" s="8"/>
-      <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
+      <c r="C178" s="17"/>
+      <c r="D178" s="17"/>
       <c r="E178" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2771,8 +2779,8 @@
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="7"/>
       <c r="B179" s="8"/>
-      <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
+      <c r="C179" s="17"/>
+      <c r="D179" s="17"/>
       <c r="E179" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2782,8 +2790,8 @@
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="7"/>
       <c r="B180" s="8"/>
-      <c r="C180" s="8"/>
-      <c r="D180" s="8"/>
+      <c r="C180" s="17"/>
+      <c r="D180" s="17"/>
       <c r="E180" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2793,8 +2801,8 @@
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="7"/>
       <c r="B181" s="8"/>
-      <c r="C181" s="8"/>
-      <c r="D181" s="8"/>
+      <c r="C181" s="17"/>
+      <c r="D181" s="17"/>
       <c r="E181" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2804,8 +2812,8 @@
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="7"/>
       <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="8"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="17"/>
       <c r="E182" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2815,8 +2823,8 @@
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="7"/>
       <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
+      <c r="C183" s="17"/>
+      <c r="D183" s="17"/>
       <c r="E183" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2826,8 +2834,8 @@
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="7"/>
       <c r="B184" s="8"/>
-      <c r="C184" s="8"/>
-      <c r="D184" s="8"/>
+      <c r="C184" s="17"/>
+      <c r="D184" s="17"/>
       <c r="E184" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2837,8 +2845,8 @@
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="7"/>
       <c r="B185" s="8"/>
-      <c r="C185" s="8"/>
-      <c r="D185" s="8"/>
+      <c r="C185" s="17"/>
+      <c r="D185" s="17"/>
       <c r="E185" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2848,8 +2856,8 @@
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="7"/>
       <c r="B186" s="8"/>
-      <c r="C186" s="8"/>
-      <c r="D186" s="8"/>
+      <c r="C186" s="17"/>
+      <c r="D186" s="17"/>
       <c r="E186" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2859,8 +2867,8 @@
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="7"/>
       <c r="B187" s="8"/>
-      <c r="C187" s="8"/>
-      <c r="D187" s="8"/>
+      <c r="C187" s="17"/>
+      <c r="D187" s="17"/>
       <c r="E187" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2870,8 +2878,8 @@
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="7"/>
       <c r="B188" s="8"/>
-      <c r="C188" s="8"/>
-      <c r="D188" s="8"/>
+      <c r="C188" s="17"/>
+      <c r="D188" s="17"/>
       <c r="E188" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2881,8 +2889,8 @@
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="7"/>
       <c r="B189" s="8"/>
-      <c r="C189" s="8"/>
-      <c r="D189" s="8"/>
+      <c r="C189" s="17"/>
+      <c r="D189" s="17"/>
       <c r="E189" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2892,8 +2900,8 @@
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="7"/>
       <c r="B190" s="8"/>
-      <c r="C190" s="8"/>
-      <c r="D190" s="8"/>
+      <c r="C190" s="17"/>
+      <c r="D190" s="17"/>
       <c r="E190" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2903,8 +2911,8 @@
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="7"/>
       <c r="B191" s="8"/>
-      <c r="C191" s="8"/>
-      <c r="D191" s="8"/>
+      <c r="C191" s="17"/>
+      <c r="D191" s="17"/>
       <c r="E191" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2914,8 +2922,8 @@
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="7"/>
       <c r="B192" s="8"/>
-      <c r="C192" s="8"/>
-      <c r="D192" s="8"/>
+      <c r="C192" s="17"/>
+      <c r="D192" s="17"/>
       <c r="E192" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2925,8 +2933,8 @@
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="7"/>
       <c r="B193" s="8"/>
-      <c r="C193" s="8"/>
-      <c r="D193" s="8"/>
+      <c r="C193" s="17"/>
+      <c r="D193" s="17"/>
       <c r="E193" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2936,8 +2944,8 @@
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="7"/>
       <c r="B194" s="8"/>
-      <c r="C194" s="8"/>
-      <c r="D194" s="8"/>
+      <c r="C194" s="17"/>
+      <c r="D194" s="17"/>
       <c r="E194" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2947,8 +2955,8 @@
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="7"/>
       <c r="B195" s="8"/>
-      <c r="C195" s="8"/>
-      <c r="D195" s="8"/>
+      <c r="C195" s="17"/>
+      <c r="D195" s="17"/>
       <c r="E195" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2958,8 +2966,8 @@
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="7"/>
       <c r="B196" s="8"/>
-      <c r="C196" s="8"/>
-      <c r="D196" s="8"/>
+      <c r="C196" s="17"/>
+      <c r="D196" s="17"/>
       <c r="E196" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2969,8 +2977,8 @@
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="7"/>
       <c r="B197" s="8"/>
-      <c r="C197" s="8"/>
-      <c r="D197" s="8"/>
+      <c r="C197" s="17"/>
+      <c r="D197" s="17"/>
       <c r="E197" s="10">
         <f t="shared" ref="E197:E199" si="3">D197-C197</f>
         <v>0</v>
@@ -2980,8 +2988,8 @@
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="7"/>
       <c r="B198" s="8"/>
-      <c r="C198" s="8"/>
-      <c r="D198" s="8"/>
+      <c r="C198" s="17"/>
+      <c r="D198" s="17"/>
       <c r="E198" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2991,8 +2999,8 @@
     <row r="199" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="16"/>
       <c r="B199" s="11"/>
-      <c r="C199" s="11"/>
-      <c r="D199" s="11"/>
+      <c r="C199" s="18"/>
+      <c r="D199" s="18"/>
       <c r="E199" s="12">
         <f t="shared" si="3"/>
         <v>0</v>

--- a/Documentation/Reports/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Reports/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61EC5B8-15A6-4CE9-989D-91A3443B8074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64A090A-700A-492B-B3FE-6EED41F0CD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1524" windowWidth="17280" windowHeight="9528" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Name:</t>
   </si>
@@ -118,13 +118,19 @@
   <si>
     <t>Design Draft/Plans</t>
   </si>
+  <si>
+    <t>Pre-Alpha Dev.</t>
+  </si>
+  <si>
+    <t>Flashed onto all three ESP32's, helped members install development on computers, defined structure for Sunday's end</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -341,10 +347,10 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -690,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,7 +722,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>0.59583333333333344</v>
+        <v>-8.3333333333331927E-3</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -973,15 +979,23 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="17"/>
+      <c r="A15" s="7">
+        <v>45954</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="D15" s="17"/>
       <c r="E15" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="13"/>
+        <v>-0.60416666666666663</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>

--- a/Documentation/Reports/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Reports/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64A090A-700A-492B-B3FE-6EED41F0CD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588876DB-8ACF-4144-9D6C-0A6FB60CFDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1524" windowWidth="17280" windowHeight="9528" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -122,7 +122,7 @@
     <t>Pre-Alpha Dev.</t>
   </si>
   <si>
-    <t>Flashed onto all three ESP32's, helped members install development on computers, defined structure for Sunday's end</t>
+    <t>Flashed onto all three ESP32's, helped members install development on computers, defined structure for Sunday's end, created main skeleton, investigated examples to create hardware drivers</t>
   </si>
 </sst>
 </file>
@@ -697,7 +697,7 @@
   <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,7 +722,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>-8.3333333333331927E-3</v>
+        <v>0.87430555555555567</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -988,10 +988,12 @@
       <c r="C15" s="17">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="17">
+        <v>0.88263888888888886</v>
+      </c>
       <c r="E15" s="10">
         <f t="shared" si="0"/>
-        <v>-0.60416666666666663</v>
+        <v>0.27847222222222223</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>28</v>
